--- a/test_spreadsheet.xlsx
+++ b/test_spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t xml:space="preserve">Project ID</t>
   </si>
@@ -34,12 +34,12 @@
     <t xml:space="preserve">MCO</t>
   </si>
   <si>
+    <t xml:space="preserve">Call Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
-    <t xml:space="preserve">Call Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
@@ -61,63 +61,63 @@
     <t xml:space="preserve">test_collection</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 40 BTS 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843119</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 40 BTS 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">L'homme sur le quai FA</t>
   </si>
   <si>
-    <t xml:space="preserve">Betac</t>
+    <t xml:space="preserve">betacam</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0001</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 40 BTS 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843192</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 40 BTS 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Man by the Shore Press Clips + Trailer</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0002</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 40 BTL 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843325</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 40 BTL 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Katrina: The Untold Stories</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0003</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 40 BTL 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843333</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 40 BTL 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creatively Speaking Presents Life Lessons: Departures from a Love; Sticks + Stones; The Lesson Plan; Premature</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0006</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 40 DB 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843341</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 40 DB 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chisholm '72 Unbought &amp; Unbossed Theatrical Master</t>
   </si>
   <si>
@@ -130,60 +130,60 @@
     <t xml:space="preserve">test_collection2</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 40 BTL 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843358</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 40 BTL 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Girl Like Me</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0007</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 40 BTL 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843366</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 40 BTL 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fire in Babylon</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0008</t>
   </si>
   <si>
+    <t xml:space="preserve">COL 50 BTL 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003843374</t>
   </si>
   <si>
-    <t xml:space="preserve">COL 50 BTL 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">La Corona</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0009</t>
   </si>
   <si>
+    <t xml:space="preserve">BTS 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003845197</t>
   </si>
   <si>
-    <t xml:space="preserve">BTS 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">That Bastard Race</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0010</t>
   </si>
   <si>
+    <t xml:space="preserve">BTS 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">40000003845205</t>
   </si>
   <si>
-    <t xml:space="preserve">BTS 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Conversation Stops</t>
   </si>
   <si>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">Robin + Ellen, Gus Meade "Collecting Trip", Buck Turner, Ian Buchanan 1962</t>
   </si>
   <si>
-    <t xml:space="preserve">cass</t>
+    <t xml:space="preserve">audiocassette</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0012</t>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t xml:space="preserve">VAA0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC3.34/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some random title that has more than one physical object associated with it.</t>
   </si>
   <si>
     <t xml:space="preserve">first volume</t>
@@ -261,6 +267,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -282,6 +289,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -291,14 +299,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -353,40 +361,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,286 +529,286 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="102.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="102.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="9" t="n">
         <v>40000003619386</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>60</v>
@@ -802,17 +818,17 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="9" t="n">
         <v>40000003619378</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>63</v>
@@ -822,17 +838,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9" t="n">
         <v>40000003619352</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>65</v>
@@ -845,17 +861,17 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="9" t="n">
         <v>40000003619360</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>68</v>
@@ -865,42 +881,51 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="n">
         <v>40000003841234</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="G17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="1" t="n">
         <v>40000003841235</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="0" t="n">
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="n">
         <v>40000003841236</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>74</v>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/test_spreadsheet.xlsx
+++ b/test_spreadsheet.xlsx
@@ -402,7 +402,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,6 +540,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="102.02"/>
   </cols>
@@ -890,7 +891,6 @@
       <c r="E16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="0"/>
       <c r="G16" s="10" t="s">
         <v>71</v>
       </c>

--- a/test_spreadsheet.xlsx
+++ b/test_spreadsheet.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">Project ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+  <si>
+    <t xml:space="preserve">Project</t>
   </si>
   <si>
     <t xml:space="preserve">Owner</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Format</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
+    <t xml:space="preserve">comments</t>
   </si>
   <si>
     <t xml:space="preserve">VAA0000</t>
@@ -151,6 +151,9 @@
     <t xml:space="preserve">Fire in Babylon</t>
   </si>
   <si>
+    <t xml:space="preserve">umatic</t>
+  </si>
+  <si>
     <t xml:space="preserve">VAA0008</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t xml:space="preserve">That Bastard Race</t>
   </si>
   <si>
+    <t xml:space="preserve">open_reel_audio</t>
+  </si>
+  <si>
     <t xml:space="preserve">VAA0010</t>
   </si>
   <si>
@@ -244,13 +250,10 @@
     <t xml:space="preserve">second volume</t>
   </si>
   <si>
-    <t xml:space="preserve">lp</t>
-  </si>
-  <si>
     <t xml:space="preserve">third volume</t>
   </si>
   <si>
-    <t xml:space="preserve">vhs</t>
+    <t xml:space="preserve">fourth volume</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,6 +406,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,10 +536,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,7 +547,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="102.02"/>
   </cols>
@@ -725,25 +732,25 @@
         <v>42</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -752,40 +759,40 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>16</v>
@@ -794,138 +801,149 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="9" t="n">
         <v>40000003619386</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>40000003619378</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>40000003619352</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>40000003619360</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="1" t="n">
-        <v>40000003841234</v>
+        <v>40000003841238</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="1" t="n">
-        <v>40000003841235</v>
+        <v>40000003841246</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="1" t="n">
-        <v>40000003841236</v>
+        <v>40000003841253</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="n">
+        <v>40000003841261</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
